--- a/data/captain_team_assignments.xlsx
+++ b/data/captain_team_assignments.xlsx
@@ -88,9 +88,6 @@
     <t>Team 5</t>
   </si>
   <si>
-    <t>team5_logo.png</t>
-  </si>
-  <si>
     <t>CPL_T06</t>
   </si>
   <si>
@@ -281,6 +278,9 @@
   </si>
   <si>
     <t>Anil Mardani</t>
+  </si>
+  <si>
+    <t>quality_strikers.png</t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,10 +694,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -720,10 +720,10 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -746,10 +746,10 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -772,10 +772,10 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -798,13 +798,13 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="F6">
         <v>1200</v>
@@ -818,19 +818,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
       </c>
       <c r="F7">
         <v>1200</v>
@@ -844,19 +844,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
       </c>
       <c r="F8">
         <v>1200</v>
@@ -870,19 +870,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
       </c>
       <c r="F9">
         <v>1200</v>
@@ -917,338 +917,338 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
       </c>
       <c r="C2">
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>40</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
         <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
         <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
         <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
         <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
         <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
       </c>
       <c r="C12">
         <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13">
         <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
         <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
         <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
         <v>67</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
         <v>69</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
         <v>71</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
         <v>73</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
         <v>79</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
         <v>81</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
         <v>83</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
